--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/127.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/127.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2057430307425409</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.603925370465241</v>
+        <v>-1.605365597961231</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04283288119823474</v>
+        <v>-0.0427352920127141</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1452432872874214</v>
+        <v>-0.1482575339047122</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2017891883020061</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.585342500719165</v>
+        <v>-1.587679919114296</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.07366476774627262</v>
+        <v>-0.07278961311482943</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1188768929865136</v>
+        <v>-0.1224326021815318</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.202852668255098</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.634174082928837</v>
+        <v>-1.636225029843891</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1215448553971182</v>
+        <v>-0.1205925738287313</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1144680654277503</v>
+        <v>-0.1176963786455381</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2080132410023831</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.7284727814764</v>
+        <v>-1.730112122391235</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.148188277063375</v>
+        <v>-0.1476767208489523</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.125202875835021</v>
+        <v>-0.1286704399592465</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2101958120377425</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.760398611313742</v>
+        <v>-1.760023994762872</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.108990478885624</v>
+        <v>-0.1091982494096356</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1154691415888976</v>
+        <v>-0.1186518082521676</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.200493044560487</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.621281292306263</v>
+        <v>-1.619853656963243</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04454069194484599</v>
+        <v>-0.04468235366576305</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.116575677031172</v>
+        <v>-0.1193475247037825</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1756808475050495</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.331793991593125</v>
+        <v>-1.332193005440375</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.009863476683470535</v>
+        <v>-0.008234366892924323</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1111342929288355</v>
+        <v>-0.1147687030799188</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.137084774292536</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9100953807672155</v>
+        <v>-0.9121628548830439</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01074020533403502</v>
+        <v>-0.006188142035233429</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07100310141215314</v>
+        <v>-0.07460917921905302</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.0853208889297493</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3822653826493642</v>
+        <v>-0.3873274281434672</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.05823623231928327</v>
+        <v>-0.05171507109973452</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02389270911162357</v>
+        <v>-0.02715722476920119</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.02017912170454461</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1836118056685674</v>
+        <v>0.1754284802569251</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1188643008335432</v>
+        <v>-0.1090786239564168</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05883301384657668</v>
+        <v>0.05499240719060301</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.05834878222007772</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8639107399903312</v>
+        <v>0.8530169536518091</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2486657876716044</v>
+        <v>-0.2365458404375891</v>
       </c>
       <c r="G12" t="n">
-        <v>0.138616895067066</v>
+        <v>0.1347211977418467</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.148218464282527</v>
       </c>
       <c r="E13" t="n">
-        <v>1.55865287376915</v>
+        <v>1.544659843780787</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4546686882100745</v>
+        <v>-0.4397139325385966</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2571594231304634</v>
+        <v>0.2534636262336493</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2448113626546661</v>
       </c>
       <c r="E14" t="n">
-        <v>2.28360200850485</v>
+        <v>2.266763151945176</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6863218043492606</v>
+        <v>-0.6697442349637218</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3781432548509981</v>
+        <v>0.3738792370513945</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3404447179287134</v>
       </c>
       <c r="E15" t="n">
-        <v>3.016872982334867</v>
+        <v>2.997781704412612</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9347783616178923</v>
+        <v>-0.9163749300516446</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4901724917904532</v>
+        <v>0.485961990640974</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.426265877208763</v>
       </c>
       <c r="E16" t="n">
-        <v>3.637322987607415</v>
+        <v>3.618448924323899</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.220511626726727</v>
+        <v>-1.197926813364744</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6367687626527928</v>
+        <v>0.6302570455479719</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5032849649193561</v>
       </c>
       <c r="E17" t="n">
-        <v>4.231767048957833</v>
+        <v>4.211742377696646</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.476144137169369</v>
+        <v>-1.450594658792416</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7865870506564349</v>
+        <v>0.779573221451919</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5816000608504174</v>
       </c>
       <c r="E18" t="n">
-        <v>4.760025180276678</v>
+        <v>4.740597062262464</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.717710425734507</v>
+        <v>-1.691146492033876</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9239343851620117</v>
+        <v>0.9155149568821742</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6661479325905425</v>
       </c>
       <c r="E19" t="n">
-        <v>5.190147941439789</v>
+        <v>5.170397149505709</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.008082325193815</v>
+        <v>-1.978637149491643</v>
       </c>
       <c r="G19" t="n">
-        <v>1.069194313790367</v>
+        <v>1.060617483598399</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7515292429876196</v>
       </c>
       <c r="E20" t="n">
-        <v>5.527987535540162</v>
+        <v>5.507808610405087</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.262212434385175</v>
+        <v>-2.231777200655705</v>
       </c>
       <c r="G20" t="n">
-        <v>1.220177375943772</v>
+        <v>1.211288889965787</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.8310785240444096</v>
       </c>
       <c r="E21" t="n">
-        <v>5.812596950996389</v>
+        <v>5.792580149830808</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.485121874305536</v>
+        <v>-2.453357381428127</v>
       </c>
       <c r="G21" t="n">
-        <v>1.356890380743464</v>
+        <v>1.348604744088937</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.9014646380287573</v>
       </c>
       <c r="E22" t="n">
-        <v>6.01808042522483</v>
+        <v>5.999072570316002</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.690414105210738</v>
+        <v>-2.65902501589376</v>
       </c>
       <c r="G22" t="n">
-        <v>1.472590230273792</v>
+        <v>1.463859146207937</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.9581129638658807</v>
       </c>
       <c r="E23" t="n">
-        <v>6.158520707303762</v>
+        <v>6.138031700401791</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.810244967924921</v>
+        <v>-2.779860102807332</v>
       </c>
       <c r="G23" t="n">
-        <v>1.571824265776194</v>
+        <v>1.562956242046786</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.9941812541743827</v>
       </c>
       <c r="E24" t="n">
-        <v>6.263073353417039</v>
+        <v>6.24209010451098</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.882706512193119</v>
+        <v>-2.853864185814405</v>
       </c>
       <c r="G24" t="n">
-        <v>1.619361217258596</v>
+        <v>1.61074975864596</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.005329809601826</v>
       </c>
       <c r="E25" t="n">
-        <v>6.280483578917746</v>
+        <v>6.260076421010083</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.960891189986367</v>
+        <v>-2.931908775905857</v>
       </c>
       <c r="G25" t="n">
-        <v>1.669328454264287</v>
+        <v>1.66188963989702</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9920597211946645</v>
       </c>
       <c r="E26" t="n">
-        <v>6.268535199767952</v>
+        <v>6.24908504548604</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.021938734596453</v>
+        <v>-2.993234134890853</v>
       </c>
       <c r="G26" t="n">
-        <v>1.687868825494087</v>
+        <v>1.680450473375397</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.9590838055679386</v>
       </c>
       <c r="E27" t="n">
-        <v>6.171836909069966</v>
+        <v>6.153378386834473</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.0357420952807</v>
+        <v>-3.00754590375128</v>
       </c>
       <c r="G27" t="n">
-        <v>1.69423730685887</v>
+        <v>1.687015707130342</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.9127302563564185</v>
       </c>
       <c r="E28" t="n">
-        <v>6.006566475352515</v>
+        <v>5.989598549224894</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.045848872058571</v>
+        <v>-3.017477177397127</v>
       </c>
       <c r="G28" t="n">
-        <v>1.679663463814747</v>
+        <v>1.672958142358006</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.8593331748361688</v>
       </c>
       <c r="E29" t="n">
-        <v>5.835177829310568</v>
+        <v>5.819473840537351</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.002109241706307</v>
+        <v>-2.97504162188686</v>
       </c>
       <c r="G29" t="n">
-        <v>1.642614201737571</v>
+        <v>1.636030079753171</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.8041848802721123</v>
       </c>
       <c r="E30" t="n">
-        <v>5.641225619164777</v>
+        <v>5.626947691715458</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.972759294160974</v>
+        <v>-2.946783256602149</v>
       </c>
       <c r="G30" t="n">
-        <v>1.572439707252623</v>
+        <v>1.566537135547745</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.750069242993484</v>
       </c>
       <c r="E31" t="n">
-        <v>5.400937434126135</v>
+        <v>5.387918721973857</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.870750262947719</v>
+        <v>-2.846783460797234</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497837496979455</v>
+        <v>1.492076586995495</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.697131445540455</v>
       </c>
       <c r="E32" t="n">
-        <v>5.169470052243262</v>
+        <v>5.156232551433123</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.809278520184442</v>
+        <v>-2.785069319089277</v>
       </c>
       <c r="G32" t="n">
-        <v>1.424403208894293</v>
+        <v>1.418720999866398</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.6439671451434418</v>
       </c>
       <c r="E33" t="n">
-        <v>4.874508313026241</v>
+        <v>4.861952362495625</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.684298253914925</v>
+        <v>-2.661639461654241</v>
       </c>
       <c r="G33" t="n">
-        <v>1.35022913182212</v>
+        <v>1.345291433838599</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.588667408879884</v>
       </c>
       <c r="E34" t="n">
-        <v>4.61315188204899</v>
+        <v>4.602487902502178</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.607574265866244</v>
+        <v>-2.585224768362896</v>
       </c>
       <c r="G34" t="n">
-        <v>1.249433669351387</v>
+        <v>1.244593560553388</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.5307907718046052</v>
       </c>
       <c r="E35" t="n">
-        <v>4.297729468274181</v>
+        <v>4.289297447841373</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.533267971187881</v>
+        <v>-2.512302036492156</v>
       </c>
       <c r="G35" t="n">
-        <v>1.15774390749738</v>
+        <v>1.153007683961386</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.4721655305912962</v>
       </c>
       <c r="E36" t="n">
-        <v>3.957960126731093</v>
+        <v>3.950104197296681</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.436691666971796</v>
+        <v>-2.416581211668497</v>
       </c>
       <c r="G36" t="n">
-        <v>1.077080149588083</v>
+        <v>1.073889612829207</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.415089529510979</v>
       </c>
       <c r="E37" t="n">
-        <v>3.674268364422585</v>
+        <v>3.666900380915776</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.367708704961672</v>
+        <v>-2.348249106565031</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9906680738477969</v>
+        <v>0.9870714401556248</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.361212098380207</v>
       </c>
       <c r="E38" t="n">
-        <v>3.37260917384443</v>
+        <v>3.367934337054166</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.299644183108827</v>
+        <v>-2.280315228299254</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9008183403465897</v>
+        <v>0.897992976023855</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.31060653931461</v>
       </c>
       <c r="E39" t="n">
-        <v>3.053837247379493</v>
+        <v>3.050550695454217</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.221249373762885</v>
+        <v>-2.203359072430182</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8122545804674852</v>
+        <v>0.8100210473343595</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.2617812813778844</v>
       </c>
       <c r="E40" t="n">
-        <v>2.774713288560999</v>
+        <v>2.770150207128349</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.147643517593501</v>
+        <v>-2.129323509040682</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7451226649440109</v>
+        <v>0.7433770777384884</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.2142678524915168</v>
       </c>
       <c r="E41" t="n">
-        <v>2.477399964776755</v>
+        <v>2.473704167879941</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.086847816042823</v>
+        <v>-2.06989090804905</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6865077668858945</v>
+        <v>0.6855098387629899</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.1686892142946784</v>
       </c>
       <c r="E42" t="n">
-        <v>2.200570925837118</v>
+        <v>2.19818943490659</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.000548282669709</v>
+        <v>-1.984616061123904</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6142791774476486</v>
+        <v>0.6141312196502463</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.1258395939862757</v>
       </c>
       <c r="E43" t="n">
-        <v>1.947692161847192</v>
+        <v>1.945531033593646</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.937682745974521</v>
+        <v>-1.921564790172401</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5442731030086791</v>
+        <v>0.5434703532568158</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.08540097489698081</v>
       </c>
       <c r="E44" t="n">
-        <v>1.745962723223053</v>
+        <v>1.743334111290481</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.885657478967729</v>
+        <v>-1.870364309185172</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4777361667130565</v>
+        <v>0.4769349909803145</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.04718535515531033</v>
       </c>
       <c r="E45" t="n">
-        <v>1.532662670038233</v>
+        <v>1.531682056125663</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.800395224195553</v>
+        <v>-1.785353897472404</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4268591466552544</v>
+        <v>0.4260752851328466</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.01094021470024255</v>
       </c>
       <c r="E46" t="n">
-        <v>1.336961724648676</v>
+        <v>1.335249191844701</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.740655689475267</v>
+        <v>-1.726225082171183</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3745702314456456</v>
+        <v>0.3748976274228761</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.02257668396887257</v>
       </c>
       <c r="E47" t="n">
-        <v>1.182101853399508</v>
+        <v>1.181204662500366</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.709118642360887</v>
+        <v>-1.695080752827567</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3272142921621931</v>
+        <v>0.3264540409266048</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.05109320374372362</v>
       </c>
       <c r="E48" t="n">
-        <v>1.005007388042846</v>
+        <v>1.004996369908997</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.646580501642929</v>
+        <v>-1.632400950388691</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2561237185486475</v>
+        <v>0.255744379940414</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.07332257566592527</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8586991626797046</v>
+        <v>0.8586110176089118</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.596363782606512</v>
+        <v>-1.582092151233679</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2214228930004525</v>
+        <v>0.2212623430500799</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.08987335148507176</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7590574562248859</v>
+        <v>0.7590763444543415</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.545792909267803</v>
+        <v>-1.530744499458608</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1795524103547329</v>
+        <v>0.1792785310276266</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1022056745621242</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6436157458304508</v>
+        <v>0.6437888879337939</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.508629530804333</v>
+        <v>-1.49326946520912</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1455551713537594</v>
+        <v>0.1451490744204638</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1121097192299964</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5366391102703709</v>
+        <v>0.5358725629582974</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.464505052776911</v>
+        <v>-1.449754132581641</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1059922007398666</v>
+        <v>0.1061259923651772</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1212752151281606</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4686477803066664</v>
+        <v>0.4667259029595582</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.424239282625357</v>
+        <v>-1.410646053493805</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07420803262344181</v>
+        <v>0.0739782258317319</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1307961008663394</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3779890009771106</v>
+        <v>0.3743766270937255</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.373045884724174</v>
+        <v>-1.358073814842362</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04315578339842183</v>
+        <v>0.04344068085937726</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1415008675211303</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2884997178546813</v>
+        <v>0.2835368355652202</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.341386064118332</v>
+        <v>-1.326562739043482</v>
       </c>
       <c r="G55" t="n">
-        <v>0.008384126989768339</v>
+        <v>0.009241967410877214</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1541714267916926</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2248353664554324</v>
+        <v>0.2191736196761138</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.321204777954575</v>
+        <v>-1.306593158451541</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.008552318755427061</v>
+        <v>-0.008349270288779272</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1697531127886973</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1490431977265617</v>
+        <v>0.1432020127674148</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.328148563308193</v>
+        <v>-1.31362272784727</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04452180371539038</v>
+        <v>-0.04421801802497934</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1886930329333081</v>
       </c>
       <c r="E58" t="n">
-        <v>0.08576290699291016</v>
+        <v>0.07977219021723973</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.307966490134876</v>
+        <v>-1.294254422559665</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.07452575620562409</v>
+        <v>-0.07452733022474539</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2109131813870244</v>
       </c>
       <c r="E59" t="n">
-        <v>0.04894030366920186</v>
+        <v>0.04208702441505867</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.318323535953034</v>
+        <v>-1.304528832373955</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09962191707564226</v>
+        <v>-0.09931340932786732</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2363488009692257</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.004130899043693429</v>
+        <v>-0.0125235689984687</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.322046878184471</v>
+        <v>-1.309067516510225</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1041692583170799</v>
+        <v>-0.1042857357320562</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2656391069077192</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.04224419804686828</v>
+        <v>-0.05153563291990625</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.302003318693828</v>
+        <v>-1.289277374098112</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1353222447658632</v>
+        <v>-0.1353678913203809</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.298694353763071</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.09623777596484577</v>
+        <v>-0.1055229147613985</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.326837405380149</v>
+        <v>-1.313742353300488</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1427878174581923</v>
+        <v>-0.1431986364488518</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3348730611535861</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1390920205613783</v>
+        <v>-0.1494254560927173</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.366871794720872</v>
+        <v>-1.353300601857017</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1617909503096555</v>
+        <v>-0.1618916875334188</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3734482638803859</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.1930903205367197</v>
+        <v>-0.2050749021263031</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.408517192632246</v>
+        <v>-1.39434000240669</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1774115160694436</v>
+        <v>-0.1778931659205616</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4136882345816101</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.2456373748822219</v>
+        <v>-0.2588528394246624</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.44129377980465</v>
+        <v>-1.427256677280891</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2028460910505414</v>
+        <v>-0.2032364477926239</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4543885013905818</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.3123930998357053</v>
+        <v>-0.3254621805998649</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.483082413456062</v>
+        <v>-1.469821302359104</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2086447774934131</v>
+        <v>-0.2093798444230605</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4947188057259817</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.2992531882110872</v>
+        <v>-0.3135972244635004</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.529341261411968</v>
+        <v>-1.516324910288372</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.241707049136334</v>
+        <v>-0.2425113729073187</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5335925880931568</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.3271306408684437</v>
+        <v>-0.339889639865707</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.5607712752261</v>
+        <v>-1.546328862778606</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2520420586867944</v>
+        <v>-0.2527629594443501</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5698696565801191</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.355352803713365</v>
+        <v>-0.3678536635747351</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.620416368799108</v>
+        <v>-1.605310507291985</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2584483165104882</v>
+        <v>-0.2583885037838787</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6026382520462641</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3818545636587047</v>
+        <v>-0.3942058917035512</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.638204358888927</v>
+        <v>-1.623632089863925</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2688352686919514</v>
+        <v>-0.268723513334339</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6315421534819442</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.3890667192725044</v>
+        <v>-0.4003429922575026</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.676972449846563</v>
+        <v>-1.66124878583433</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2875487820250953</v>
+        <v>-0.2871820355698322</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6559840197579021</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.3874706638835055</v>
+        <v>-0.3982558429026579</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.709902503883295</v>
+        <v>-1.693677514780927</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2851137744444431</v>
+        <v>-0.284715547606754</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6754302736489118</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.3486647964669584</v>
+        <v>-0.3584614914779339</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.734216377250026</v>
+        <v>-1.718979872155836</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2876872957077697</v>
+        <v>-0.2866232587817705</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6895804318103245</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.3070272686511913</v>
+        <v>-0.3170159939949654</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.76683398849118</v>
+        <v>-1.751289762658775</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2924754618747664</v>
+        <v>-0.2913862406428264</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.698019456890553</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.2441939993479891</v>
+        <v>-0.2529959142743026</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.785863879667705</v>
+        <v>-1.77076746227531</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2965553194371778</v>
+        <v>-0.29468223668283</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.7003333316518928</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1367042335543652</v>
+        <v>-0.1452369912109362</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.79388035905249</v>
+        <v>-1.778993286203228</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2797904417762042</v>
+        <v>-0.2774451532854662</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6957749582634501</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.05069825474737428</v>
+        <v>-0.05816067940146084</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.780165930448597</v>
+        <v>-1.765292236761866</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2663672067097519</v>
+        <v>-0.2638361839627004</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6842430195241664</v>
       </c>
       <c r="E78" t="n">
-        <v>0.08429906921010051</v>
+        <v>0.07744106789859341</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.783985287846433</v>
+        <v>-1.769235154660724</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2390626970125489</v>
+        <v>-0.2356329093472347</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6659377169896686</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2119835003300123</v>
+        <v>0.2050908705978366</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.812459293750762</v>
+        <v>-1.798170348167595</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2223828163841255</v>
+        <v>-0.2192032977590981</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.64161527196247</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3588127260223044</v>
+        <v>0.3514132621330698</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.768569344572414</v>
+        <v>-1.756053531529391</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1962698391617471</v>
+        <v>-0.1927896828845513</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.6118845388590359</v>
       </c>
       <c r="E81" t="n">
-        <v>0.488480421235055</v>
+        <v>0.4817971360460123</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.746494513405732</v>
+        <v>-1.735202500229521</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1675251019685539</v>
+        <v>-0.1643581754964969</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5774507216709867</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6677155525966857</v>
+        <v>0.6595857438351675</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.706612016910215</v>
+        <v>-1.696467463673433</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1414640673771784</v>
+        <v>-0.1385426878880444</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.5385981798464945</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8404578550829509</v>
+        <v>0.8334518959740416</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.636566591993214</v>
+        <v>-1.62815109876118</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1232857205452768</v>
+        <v>-0.1190925336061318</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4955171383229647</v>
       </c>
       <c r="E84" t="n">
-        <v>1.022763897750239</v>
+        <v>1.014509741478138</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.556020098508454</v>
+        <v>-1.549707494822478</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1074684023953262</v>
+        <v>-0.1030265204350156</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.4483798510456229</v>
       </c>
       <c r="E85" t="n">
-        <v>1.170140882096744</v>
+        <v>1.161028885403534</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.451206165221042</v>
+        <v>-1.444832174789334</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.08786556825864741</v>
+        <v>-0.08249186697852687</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3972923546098788</v>
       </c>
       <c r="E86" t="n">
-        <v>1.331488860163913</v>
+        <v>1.323157576954869</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.333875631881046</v>
+        <v>-1.328695534952845</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.05778134079322737</v>
+        <v>-0.0523651409968317</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.3431260706777002</v>
       </c>
       <c r="E87" t="n">
-        <v>1.472717725822618</v>
+        <v>1.463037508226618</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.203232044813088</v>
+        <v>-1.199092374524068</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.03401207804246568</v>
+        <v>-0.02825431609674777</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.286785943854186</v>
       </c>
       <c r="E88" t="n">
-        <v>1.562450981908849</v>
+        <v>1.554670605392259</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.056865580742459</v>
+        <v>-1.054081140916878</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.01983646183603169</v>
+        <v>-0.01429906256729587</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.2299246247588895</v>
       </c>
       <c r="E89" t="n">
-        <v>1.667789063563655</v>
+        <v>1.659394819589758</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9104416649739017</v>
+        <v>-0.909650720365448</v>
       </c>
       <c r="G89" t="n">
-        <v>0.004250752777232733</v>
+        <v>0.01000694070382935</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1759147491460379</v>
       </c>
       <c r="E90" t="n">
-        <v>1.711466520160627</v>
+        <v>1.703528741731908</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7184664228444633</v>
+        <v>-0.7198972062257256</v>
       </c>
       <c r="G90" t="n">
-        <v>0.005338399990051508</v>
+        <v>0.01178558231089913</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1307351293453149</v>
       </c>
       <c r="E91" t="n">
-        <v>1.72820621351566</v>
+        <v>1.722382342766848</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5333586261412597</v>
+        <v>-0.535165600092513</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01248736655867878</v>
+        <v>-0.006894876620697437</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1000194959197294</v>
       </c>
       <c r="E92" t="n">
-        <v>1.700435794158552</v>
+        <v>1.695348564358508</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3690845465275922</v>
+        <v>-0.37169584424983</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.0157455861397712</v>
+        <v>-0.01005078495890532</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.08789308844160613</v>
       </c>
       <c r="E93" t="n">
-        <v>1.656621397898026</v>
+        <v>1.65263283344465</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2165038549660674</v>
+        <v>-0.2194031981875033</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.0306074746830923</v>
+        <v>-0.02592791583546535</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.09527896368201</v>
       </c>
       <c r="E94" t="n">
-        <v>1.557703740239006</v>
+        <v>1.55493818864288</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.07776351353813961</v>
+        <v>-0.08144514426286191</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.0370200285832713</v>
+        <v>-0.03195168701268308</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1187296456269482</v>
       </c>
       <c r="E95" t="n">
-        <v>1.488026635796388</v>
+        <v>1.484897485783242</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0288998922168015</v>
+        <v>0.02530955460111464</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.07215213537070266</v>
+        <v>-0.06780941661503405</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1509070816148697</v>
       </c>
       <c r="E96" t="n">
-        <v>1.403662358932914</v>
+        <v>1.401066801401889</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1111061888649725</v>
+        <v>0.1069161499640701</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1011817700248512</v>
+        <v>-0.09694765858855239</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1836886488636963</v>
       </c>
       <c r="E97" t="n">
-        <v>1.323415716090762</v>
+        <v>1.321341158888888</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1742747242410117</v>
+        <v>0.1701334799328696</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1210474653547872</v>
+        <v>-0.1163411481820982</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2126867860248366</v>
       </c>
       <c r="E98" t="n">
-        <v>1.228993457042177</v>
+        <v>1.226327068650693</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2074424551650598</v>
+        <v>0.2028227090440423</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1415317501993944</v>
+        <v>-0.1372047716349388</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2341701223814819</v>
       </c>
       <c r="E99" t="n">
-        <v>1.143056735076523</v>
+        <v>1.139825273820493</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2281376585719213</v>
+        <v>0.2239287314415632</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1438754646710111</v>
+        <v>-0.1396523713685613</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2523134942669881</v>
       </c>
       <c r="E100" t="n">
-        <v>1.054758984428918</v>
+        <v>1.051777792213175</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2401316842762325</v>
+        <v>0.2359085909737828</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1583658847017052</v>
+        <v>-0.1541947340302584</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2706527871103807</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9642040903613684</v>
+        <v>0.9612591005854149</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2349326991185763</v>
+        <v>0.2293858557351127</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1722739176575181</v>
+        <v>-0.1677438906264147</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.298320458991506</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9029637284089226</v>
+        <v>0.900527146809149</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2409879506782201</v>
+        <v>0.2356960983924072</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1979807979466009</v>
+        <v>-0.1929691210643796</v>
       </c>
     </row>
   </sheetData>
